--- a/example_data/EMA/label_corrected/deferiprone-lipomed-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/deferiprone-lipomed-epar-product-information_en.xlsx
@@ -1535,7 +1535,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>renal || hepatic || warnings</t>
+          <t>hepatic || renal || warnings</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
